--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3365.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3365.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.223427111438776</v>
+        <v>0.7011364102363586</v>
       </c>
       <c r="B1">
-        <v>2.59054292753447</v>
+        <v>3.484041929244995</v>
       </c>
       <c r="C1">
-        <v>5.273294649558388</v>
+        <v>2.741598129272461</v>
       </c>
       <c r="D1">
-        <v>2.728733318782046</v>
+        <v>2.268117189407349</v>
       </c>
       <c r="E1">
-        <v>1.174287630046211</v>
+        <v>2.044236660003662</v>
       </c>
     </row>
   </sheetData>
